--- a/res/thermodynamic_properties_h20.xlsx
+++ b/res/thermodynamic_properties_h20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>152.271</v>
       </c>
       <c r="F2" t="n">
-        <v>-2386463.1</v>
+        <v>-11938.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9296.98811</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>175.5509272300997</v>
       </c>
       <c r="F3" t="n">
-        <v>-5781977.404019448</v>
+        <v>-28445.55422744652</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4731.01444798114</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>189.7596469732436</v>
       </c>
       <c r="F4" t="n">
-        <v>-9300429.053432718</v>
+        <v>-46415.22253038493</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3233.83887611662</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>189.9838927976677</v>
       </c>
       <c r="F5" t="n">
-        <v>-9367913.461091751</v>
+        <v>-46766.48554604786</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3215.067522879182</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>200.5633431391553</v>
       </c>
       <c r="F6" t="n">
-        <v>-13071137.06268504</v>
+        <v>-66316.66153023276</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2460.166882136268</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>208.9943066641327</v>
       </c>
       <c r="F7" t="n">
-        <v>-16875456.57797333</v>
+        <v>-86808.42990742507</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2009.109482368001</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>216.0543050411807</v>
       </c>
       <c r="F8" t="n">
-        <v>-20774249.00472866</v>
+        <v>-108070.2026030045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1709.687733704304</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>222.1623861727508</v>
       </c>
       <c r="F9" t="n">
-        <v>-24763659.35576661</v>
+        <v>-129987.7606354798</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1496.751763893992</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>227.570077992523</v>
       </c>
       <c r="F10" t="n">
-        <v>-28840890.38925472</v>
+        <v>-152479.4640671577</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1337.767359336039</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>232.4401737879138</v>
       </c>
       <c r="F11" t="n">
-        <v>-33003628.49022234</v>
+        <v>-175483.9600753092</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1214.682497643306</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>236.8840813611922</v>
       </c>
       <c r="F12" t="n">
-        <v>-37249812.14627501</v>
+        <v>-198953.3892962784</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1116.679458604214</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>240.9813942932737</v>
       </c>
       <c r="F13" t="n">
-        <v>-41577525.73500218</v>
+        <v>-222849.3235213215</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1036.882812101019</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>244.7909562015067</v>
       </c>
       <c r="F14" t="n">
-        <v>-45984945.86985499</v>
+        <v>-247140.1867193949</v>
+      </c>
+      <c r="G14" t="n">
+        <v>970.714648132227</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>248.3575000757349</v>
       </c>
       <c r="F15" t="n">
-        <v>-50470312.18177448</v>
+        <v>-271799.5386667793</v>
+      </c>
+      <c r="G15" t="n">
+        <v>915.009594965652</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>251.715828906513</v>
       </c>
       <c r="F16" t="n">
-        <v>-55031910.41702743</v>
+        <v>-296804.8882125599</v>
+      </c>
+      <c r="G16" t="n">
+        <v>867.5094935287881</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>254.8935548483251</v>
       </c>
       <c r="F17" t="n">
-        <v>-59668062.16111345</v>
+        <v>-322136.8464436466</v>
+      </c>
+      <c r="G17" t="n">
+        <v>826.5604286385452</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>257.9129548423086</v>
       </c>
       <c r="F18" t="n">
-        <v>-64377118.32494459</v>
+        <v>-347778.5061504969</v>
+      </c>
+      <c r="G18" t="n">
+        <v>790.9235149555623</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>260.7922639589015</v>
       </c>
       <c r="F19" t="n">
-        <v>-69157454.86642763</v>
+        <v>-373714.976712435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>759.6525557884806</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>263.5465992295493</v>
       </c>
       <c r="F20" t="n">
-        <v>-74007469.89276369</v>
+        <v>-399933.0285990383</v>
+      </c>
+      <c r="G20" t="n">
+        <v>732.0125431939023</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>266.1886338026407</v>
       </c>
       <c r="F21" t="n">
-        <v>-78925581.64466123</v>
+        <v>-426420.816984581</v>
+      </c>
+      <c r="G21" t="n">
+        <v>707.4239365249161</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>268.7290982437601</v>
       </c>
       <c r="F22" t="n">
-        <v>-83910227.06063053</v>
+        <v>-453167.6636233771</v>
+      </c>
+      <c r="G22" t="n">
+        <v>685.4236865452565</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>271.1771595704257</v>
       </c>
       <c r="F23" t="n">
-        <v>-88959860.73283327</v>
+        <v>-480163.8824001587</v>
+      </c>
+      <c r="G23" t="n">
+        <v>665.6374163083146</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>273.5407121409392</v>
       </c>
       <c r="F24" t="n">
-        <v>-94072954.13338637</v>
+        <v>-507400.63814339</v>
+      </c>
+      <c r="G24" t="n">
+        <v>647.7592041885561</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>275.82660390235</v>
       </c>
       <c r="F25" t="n">
-        <v>-99247995.03136264</v>
+        <v>-534869.8311330178</v>
+      </c>
+      <c r="G25" t="n">
+        <v>631.5366520761631</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>278.0408145012485</v>
       </c>
       <c r="F26" t="n">
-        <v>-104483487.0467709</v>
+        <v>-562564.0017110286</v>
+      </c>
+      <c r="G26" t="n">
+        <v>616.7596948991403</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>280.1885970458744</v>
       </c>
       <c r="F27" t="n">
-        <v>-109777949.3045984</v>
+        <v>-590476.2508027023</v>
+      </c>
+      <c r="G27" t="n">
+        <v>603.2521022243561</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>282.2745920720388</v>
       </c>
       <c r="F28" t="n">
-        <v>-115129916.1630738</v>
+        <v>-618600.1731636144</v>
+      </c>
+      <c r="G28" t="n">
+        <v>590.8649459220733</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>284.3029200062516</v>
       </c>
       <c r="F29" t="n">
-        <v>-120537936.9977588</v>
+        <v>-646929.8009031375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>579.4715232666755</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>286.277256817517</v>
       </c>
       <c r="F30" t="n">
-        <v>-126000576.0281756</v>
+        <v>-675459.5553799612</v>
+      </c>
+      <c r="G30" t="n">
+        <v>568.9633709343757</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>288.2008963969869</v>
       </c>
       <c r="F31" t="n">
-        <v>-131516412.1772282</v>
+        <v>-704184.2059735851</v>
+      </c>
+      <c r="G31" t="n">
+        <v>559.2471060620716</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>290.0768023648654</v>
       </c>
       <c r="F32" t="n">
-        <v>-137084038.9561832</v>
+        <v>-733098.8345455078</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550.2419009909862</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>291.9076513844325</v>
       </c>
       <c r="F33" t="n">
-        <v>-142702064.3697746</v>
+        <v>-762198.8046412579</v>
+      </c>
+      <c r="G33" t="n">
+        <v>541.8774482989056</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>293.6958696008645</v>
       </c>
       <c r="F34" t="n">
-        <v>-148369110.837303</v>
+        <v>-791479.7346681862</v>
+      </c>
+      <c r="G34" t="n">
+        <v>534.0923086312911</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>295.4436634741124</v>
       </c>
       <c r="F35" t="n">
-        <v>-154083815.1265573</v>
+        <v>-820937.4744274782</v>
+      </c>
+      <c r="G35" t="n">
+        <v>526.8325599431639</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>297.1530460098794</v>
       </c>
       <c r="F36" t="n">
-        <v>-159844828.2981023</v>
+        <v>-850568.0844919212</v>
+      </c>
+      <c r="G36" t="n">
+        <v>520.0506859470529</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>298.8258591890254</v>
       </c>
       <c r="F37" t="n">
-        <v>-165650815.6580084</v>
+        <v>-880367.8180107421</v>
+      </c>
+      <c r="G37" t="n">
+        <v>513.7046558061689</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>300.4637932379121</v>
       </c>
       <c r="F38" t="n">
-        <v>-171500456.7175069</v>
+        <v>-910333.104594633</v>
+      </c>
+      <c r="G38" t="n">
+        <v>507.7571577898809</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>302.0684032589858</v>
       </c>
       <c r="F39" t="n">
-        <v>-177392445.158367</v>
+        <v>-940460.5359919387</v>
+      </c>
+      <c r="G39" t="n">
+        <v>502.1749576853709</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>303.6411236439567</v>
       </c>
       <c r="F40" t="n">
-        <v>-183325488.8030253</v>
+        <v>-970746.8533138571</v>
+      </c>
+      <c r="G40" t="n">
+        <v>496.9283589203484</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>305.1832806151423</v>
       </c>
       <c r="F41" t="n">
-        <v>-189298309.5886917</v>
+        <v>-1001188.935604762</v>
+      </c>
+      <c r="G41" t="n">
+        <v>491.9907460887097</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>306.6961031793048</v>
       </c>
       <c r="F42" t="n">
-        <v>-195309643.544797</v>
+        <v>-1031783.789585139</v>
+      </c>
+      <c r="G42" t="n">
+        <v>487.3381972405018</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>308.1807327291662</v>
       </c>
       <c r="F43" t="n">
-        <v>-201358240.7732661</v>
+        <v>-1062528.540420505</v>
+      </c>
+      <c r="G43" t="n">
+        <v>482.9491531601794</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>309.6382314881169</v>
       </c>
       <c r="F44" t="n">
-        <v>-207442865.4311911</v>
+        <v>-1093420.42339115</v>
+      </c>
+      <c r="G44" t="n">
+        <v>478.8041341053074</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>311.0695899614335</v>
       </c>
       <c r="F45" t="n">
-        <v>-213562295.7155539</v>
+        <v>-1124456.776355444</v>
+      </c>
+      <c r="G45" t="n">
+        <v>474.8854962546431</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>312.4757335310343</v>
       </c>
       <c r="F46" t="n">
-        <v>-219715323.8497045</v>
+        <v>-1155635.032914383</v>
+      </c>
+      <c r="G46" t="n">
+        <v>471.1772215272185</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>313.8575283092554</v>
       </c>
       <c r="F47" t="n">
-        <v>-225900756.0713538</v>
+        <v>-1186952.716197687</v>
+      </c>
+      <c r="G47" t="n">
+        <v>467.6647355636652</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>315.2157863493536</v>
       </c>
       <c r="F48" t="n">
-        <v>-232117412.6218731</v>
+        <v>-1218407.433202361</v>
+      </c>
+      <c r="G48" t="n">
+        <v>464.3347495692078</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>316.5512702957429</v>
       </c>
       <c r="F49" t="n">
-        <v>-238364127.7367302</v>
+        <v>-1249996.869623651</v>
+      </c>
+      <c r="G49" t="n">
+        <v>461.1751224516777</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>317.8646975447331</v>
       </c>
       <c r="F50" t="n">
-        <v>-244639749.6369149</v>
+        <v>-1281718.785126019</v>
+      </c>
+      <c r="G50" t="n">
+        <v>458.1747402839437</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>319.1567439763259</v>
       </c>
       <c r="F51" t="n">
-        <v>-250943140.5212288</v>
+        <v>-1313571.009008252</v>
+      </c>
+      <c r="G51" t="n">
+        <v>455.323410606485</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>320.4280473090648</v>
       </c>
       <c r="F52" t="n">
-        <v>-257273176.5593343</v>
+        <v>-1345551.436222535</v>
+      </c>
+      <c r="G52" t="n">
+        <v>452.6117694844424</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>321.6792101227198</v>
       </c>
       <c r="F53" t="n">
-        <v>-263628747.8854726</v>
+        <v>-1377658.023712025</v>
+      </c>
+      <c r="G53" t="n">
+        <v>450.0311995615903</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>322.9108025875094</v>
       </c>
       <c r="F54" t="n">
-        <v>-270008758.5927694</v>
+        <v>-1409888.787035734</v>
+      </c>
+      <c r="G54" t="n">
+        <v>447.5737576248682</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>324.1233649333968</v>
       </c>
       <c r="F55" t="n">
-        <v>-276412126.7280645</v>
+        <v>-1442241.797253086</v>
+      </c>
+      <c r="G55" t="n">
+        <v>445.2321104181494</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>325.3174096886112</v>
       </c>
       <c r="F56" t="n">
-        <v>-282837784.287204</v>
+        <v>-1474715.178043615</v>
+      </c>
+      <c r="G56" t="n">
+        <v>442.9994776313592</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>326.4934237127999</v>
       </c>
       <c r="F57" t="n">
-        <v>-289284677.2107453</v>
+        <v>-1507307.103040074</v>
+      </c>
+      <c r="G57" t="n">
+        <v>440.8695811477625</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>327.6518700470145</v>
       </c>
       <c r="F58" t="n">
-        <v>-295751765.380031</v>
+        <v>-1540015.793355514</v>
+      </c>
+      <c r="G58" t="n">
+        <v>438.8365997636797</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>328.7931895999816</v>
       </c>
       <c r="F59" t="n">
-        <v>-302238022.6135918</v>
+        <v>-1572839.515287023</v>
+      </c>
+      <c r="G59" t="n">
+        <v>436.8951287055422</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>329.9178026877404</v>
       </c>
       <c r="F60" t="n">
-        <v>-308742436.6638455</v>
+        <v>-1605776.578180638</v>
+      </c>
+      <c r="G60" t="n">
+        <v>435.0401433626257</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>331.0261104416891</v>
       </c>
       <c r="F61" t="n">
-        <v>-315264009.214062</v>
+        <v>-1638825.33244351</v>
+      </c>
+      <c r="G61" t="n">
+        <v>433.2669667329403</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>332.1184960983074</v>
       </c>
       <c r="F62" t="n">
-        <v>-321801755.8755673</v>
+        <v>-1671984.167690867</v>
+      </c>
+      <c r="G62" t="n">
+        <v>431.5712401469947</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>334.2569515934921</v>
       </c>
       <c r="F63" t="n">
-        <v>-334921903.6027485</v>
+        <v>-1738625.825376782</v>
+      </c>
+      <c r="G63" t="n">
+        <v>428.3961384035934</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>336.3359197939638</v>
       </c>
       <c r="F64" t="n">
-        <v>-348095283.203851</v>
+        <v>-1805689.389364199</v>
+      </c>
+      <c r="G64" t="n">
+        <v>425.4853951354502</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>338.357931490665</v>
       </c>
       <c r="F65" t="n">
-        <v>-361314520.7399728</v>
+        <v>-1873163.225446255</v>
+      </c>
+      <c r="G65" t="n">
+        <v>422.8132161096761</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>340.3253239009028</v>
       </c>
       <c r="F66" t="n">
-        <v>-374572464.9160326</v>
+        <v>-1941036.185812633</v>
+      </c>
+      <c r="G66" t="n">
+        <v>420.3569132052823</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>342.2402631179177</v>
       </c>
       <c r="F67" t="n">
-        <v>-387862187.02982</v>
+        <v>-2009297.57263743</v>
+      </c>
+      <c r="G67" t="n">
+        <v>418.0964554811774</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>344.1047633975286</v>
       </c>
       <c r="F68" t="n">
-        <v>-401176980.9276322</v>
+        <v>-2077937.105831036</v>
+      </c>
+      <c r="G68" t="n">
+        <v>416.0140956445006</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>345.9207038019739</v>
       </c>
       <c r="F69" t="n">
-        <v>-414510362.9654621</v>
+        <v>-2146944.89437728</v>
+      </c>
+      <c r="G69" t="n">
+        <v>414.0940575761517</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>347.6898426239401</v>
       </c>
       <c r="F70" t="n">
-        <v>-427856071.9748876</v>
+        <v>-2216311.410770999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>412.3222736023458</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>349.4138299368327</v>
       </c>
       <c r="F71" t="n">
-        <v>-441208069.2329692</v>
+        <v>-2286027.468147833</v>
+      </c>
+      <c r="G71" t="n">
+        <v>410.6861625310864</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>351.0942185559981</v>
       </c>
       <c r="F72" t="n">
-        <v>-454560538.4355791</v>
+        <v>-2356084.199760853</v>
+      </c>
+      <c r="G72" t="n">
+        <v>409.1744412765208</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>352.732473646379</v>
       </c>
       <c r="F73" t="n">
-        <v>-467907885.673683</v>
+        <v>-2426473.040510526</v>
+      </c>
+      <c r="G73" t="n">
+        <v>407.7769643008702</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>354.3299811723523</v>
       </c>
       <c r="F74" t="n">
-        <v>-481244739.4121754</v>
+        <v>-2497185.710277432</v>
+      </c>
+      <c r="G74" t="n">
+        <v>406.4845862078407</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>355.8880553532497</v>
       </c>
       <c r="F75" t="n">
-        <v>-494565950.4709282</v>
+        <v>-2568214.198843057</v>
+      </c>
+      <c r="G75" t="n">
+        <v>405.2890436937049</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>357.4079452617416</v>
       </c>
       <c r="F76" t="n">
-        <v>-507866592.0077739</v>
+        <v>-2639550.752213855</v>
+      </c>
+      <c r="G76" t="n">
+        <v>404.1828537554279</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>358.890840680681</v>
       </c>
       <c r="F77" t="n">
-        <v>-521141959.5031748</v>
+        <v>-2711187.86018908</v>
+      </c>
+      <c r="G77" t="n">
+        <v>403.1592256092381</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>360.3378773162155</v>
       </c>
       <c r="F78" t="n">
-        <v>-534387570.7463781</v>
+        <v>-2783118.245034114</v>
+      </c>
+      <c r="G78" t="n">
+        <v>402.2119842182433</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>361.7501414502456</v>
       </c>
       <c r="F79" t="n">
-        <v>-547599165.8228763</v>
+        <v>-2855334.851139065</v>
+      </c>
+      <c r="G79" t="n">
+        <v>401.3355036872948</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>363.128674103066</v>
       </c>
       <c r="F80" t="n">
-        <v>-560772707.1030241</v>
+        <v>-2927830.835557799</v>
+      </c>
+      <c r="G80" t="n">
+        <v>400.524649075205</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>364.4744747667961</v>
       </c>
       <c r="F81" t="n">
-        <v>-573904379.2316777</v>
+        <v>-3000599.559335639</v>
+      </c>
+      <c r="G81" t="n">
+        <v>399.7747254124755</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>365.7885047616354</v>
       </c>
       <c r="F82" t="n">
-        <v>-586990589.1187459</v>
+        <v>-3073634.579545225</v>
+      </c>
+      <c r="G82" t="n">
+        <v>399.0814329077153</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>368.9405819119918</v>
       </c>
       <c r="F83" t="n">
-        <v>-619485642.3713706</v>
+        <v>-3257346.579814619</v>
+      </c>
+      <c r="G83" t="n">
+        <v>397.5708619318436</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>371.9134263914412</v>
       </c>
       <c r="F84" t="n">
-        <v>-651629504.3009195</v>
+        <v>-3442591.46969524</v>
+      </c>
+      <c r="G84" t="n">
+        <v>396.3370012249663</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>374.7196239865731</v>
       </c>
       <c r="F85" t="n">
-        <v>-683384263.5262684</v>
+        <v>-3629282.923995168</v>
+      </c>
+      <c r="G85" t="n">
+        <v>395.3362548907232</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>377.370890724469</v>
       </c>
       <c r="F86" t="n">
-        <v>-714720689.050838</v>
+        <v>-3817340.686331484</v>
+      </c>
+      <c r="G86" t="n">
+        <v>394.5327980274268</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>379.878214977531</v>
       </c>
       <c r="F87" t="n">
-        <v>-745618229.8112628</v>
+        <v>-4006690.171095094</v>
+      </c>
+      <c r="G87" t="n">
+        <v>393.8969906863175</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>382.251971681689</v>
       </c>
       <c r="F88" t="n">
-        <v>-776065014.3021337</v>
+        <v>-4197262.129191685</v>
+      </c>
+      <c r="G88" t="n">
+        <v>393.4041627453088</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>384.502014987655</v>
       </c>
       <c r="F89" t="n">
-        <v>-806057850.2613413</v>
+        <v>-4388992.365274334</v>
+      </c>
+      <c r="G89" t="n">
+        <v>393.0336726249834</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>386.6377540546778</v>
       </c>
       <c r="F90" t="n">
-        <v>-835602224.4041972</v>
+        <v>-4581821.496918056</v>
+      </c>
+      <c r="G90" t="n">
+        <v>392.7681707041577</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>388.6682155384949</v>
       </c>
       <c r="F91" t="n">
-        <v>-864712302.1971776</v>
+        <v>-4775694.748236307</v>
+      </c>
+      <c r="G91" t="n">
+        <v>392.5930175075334</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>390.6020954816962</v>
       </c>
       <c r="F92" t="n">
-        <v>-893410927.6641382</v>
+        <v>-4970561.77199353</v>
+      </c>
+      <c r="G92" t="n">
+        <v>392.4958201555532</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>392.447802692669</v>
       </c>
       <c r="F93" t="n">
-        <v>-921729623.2193472</v>
+        <v>-5166376.495458759</v>
+      </c>
+      <c r="G93" t="n">
+        <v>392.4660600653214</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>394.2134952353646</v>
       </c>
       <c r="F94" t="n">
-        <v>-949708589.5228286</v>
+        <v>-5363096.986166772</v>
+      </c>
+      <c r="G94" t="n">
+        <v>392.4947917018233</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>395.907111302478</v>
       </c>
       <c r="F95" t="n">
-        <v>-977396705.3543937</v>
+        <v>-5560685.334472984</v>
+      </c>
+      <c r="G95" t="n">
+        <v>392.5743971194525</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>397.5363954785532</v>
       </c>
       <c r="F96" t="n">
-        <v>-1004851527.503422</v>
+        <v>-5759107.550355118</v>
+      </c>
+      <c r="G96" t="n">
+        <v>392.6983846577845</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>399.1089211951783</v>
       </c>
       <c r="F97" t="n">
-        <v>-1032139290.671996</v>
+        <v>-5958333.472364539</v>
+      </c>
+      <c r="G97" t="n">
+        <v>392.8612228409136</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>400.6321100221769</v>
       </c>
       <c r="F98" t="n">
-        <v>-1059334907.38942</v>
+        <v>-6158336.686990162</v>
+      </c>
+      <c r="G98" t="n">
+        <v>393.0582025387085</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>402.1132483151428</v>
       </c>
       <c r="F99" t="n">
-        <v>-1086521967.936483</v>
+        <v>-6359094.456987489</v>
+      </c>
+      <c r="G99" t="n">
+        <v>393.2853219648998</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>403.5595016424876</v>
       </c>
       <c r="F100" t="n">
-        <v>-1113792740.278121</v>
+        <v>-6560587.657460351</v>
+      </c>
+      <c r="G100" t="n">
+        <v>393.5391902414003</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>404.9779273381944</v>
       </c>
       <c r="F101" t="n">
-        <v>-1141248170.00334</v>
+        <v>-6762800.718674546</v>
+      </c>
+      <c r="G101" t="n">
+        <v>393.816946144109</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>406.3754854650897</v>
       </c>
       <c r="F102" t="n">
-        <v>-1168997880.271428</v>
+        <v>-6965721.574739668</v>
+      </c>
+      <c r="G102" t="n">
+        <v>394.1161893302553</v>
       </c>
     </row>
   </sheetData>
